--- a/biology/Botanique/Bondarzewiacées/Bondarzewiacées.xlsx
+++ b/biology/Botanique/Bondarzewiacées/Bondarzewiacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bondarzewiac%C3%A9es</t>
+          <t>Bondarzewiacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bondarzewiaceae sont une famille de champignons basidiomycètes de l’ordre des Russulales.
 L'espèce type pour la famille et le genre est Bondarzewia montana, très proches des Polyporales (ordre dans lequel la famille était placée précédemment), mais se différenciant par des spores ornementées telles que celles des Lactarius ou des Russula.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bondarzewiac%C3%A9es</t>
+          <t>Bondarzewiacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (30 octobre 2013)[1], les noms suivants sont des synonymes : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (30 octobre 2013), les noms suivants sont des synonymes : 
 Echinodontiaceae Donk, 1961
 Amylariaceae Corner, 1970
 Heterobasidiaceae Jülich, 1981</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bondarzewiac%C3%A9es</t>
+          <t>Bondarzewiacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Liste des genres  des Bondarzewiaceae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après la 10e édition du Dictionary of the Fungi[2] (2007), cette famille est constituée des genres suivants :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après la 10e édition du Dictionary of the Fungi (2007), cette famille est constituée des genres suivants :
 Amylaria  Corner 1955
 Amylosporus  Ryvarden 1973
 Bondarzewia  Singer 1940
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bondarzewiac%C3%A9es</t>
+          <t>Bondarzewiacées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,9 +599,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (30 octobre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 octobre 2013) :
 Famille des Echinodontiaceae
 genre Echinodontium
 genre Laurilia
@@ -600,7 +618,7 @@
 genre Spiniger
 genre Stecchericium
 genre Wrightoporia
-Selon NCBI  (30 octobre 2013)[4] :
+Selon NCBI  (30 octobre 2013) :
 Famille des Echinodontiaceae
 genre Echinodontium
 Famille des Bondarzewiaceae
